--- a/_Experiments/_Surgery/_templates/Injection_LC.xlsx
+++ b/_Experiments/_Surgery/_templates/Injection_LC.xlsx
@@ -13,7 +13,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">implant!$A$1:$H$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">implant!$A$1:$G$25</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>Bregma</t>
   </si>
@@ -128,9 +128,6 @@
   <si>
     <t>Lac. Ring 
 S.C. (mL)</t>
-  </si>
-  <si>
-    <t>Date of implant:</t>
   </si>
   <si>
     <t>X (A-&gt;P) 0.X mm sigfig</t>
@@ -202,18 +199,6 @@
     <t>Pinout</t>
   </si>
   <si>
-    <t>1st in Loc5</t>
-  </si>
-  <si>
-    <t>2nd in Loc2</t>
-  </si>
-  <si>
-    <t>3rd in Loc1</t>
-  </si>
-  <si>
-    <t>0.1/30g mouse</t>
-  </si>
-  <si>
     <t>0.5/30g mouse</t>
   </si>
   <si>
@@ -248,6 +233,24 @@
   <si>
     <t>Alt: Skull - 3.00 mm</t>
   </si>
+  <si>
+    <t>Start:</t>
+  </si>
+  <si>
+    <t>End:</t>
+  </si>
+  <si>
+    <t>Date of surgery:</t>
+  </si>
+  <si>
+    <t>0.1 mL/30g mouse</t>
+  </si>
+  <si>
+    <t>Start vol of current surgery:</t>
+  </si>
+  <si>
+    <t>End vol of current surgery:</t>
+  </si>
 </sst>
 </file>
 
@@ -256,7 +259,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +324,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -371,9 +380,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -388,12 +394,29 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -506,20 +529,6 @@
       </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -614,7 +623,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1295400</xdr:colOff>
+          <xdr:colOff>1092200</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>63500</xdr:rowOff>
         </xdr:to>
@@ -658,21 +667,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A19:G26" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A19:G26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A19:G25" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A19:G25"/>
   <sortState ref="A20:F27">
     <sortCondition ref="D6:D14"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Location" dataDxfId="6"/>
-    <tableColumn id="2" name="X (A-&gt;P) 0.X mm sigfig" dataDxfId="5"/>
-    <tableColumn id="3" name="Y(M-&gt;L) 0.X mm sigfig" dataDxfId="4"/>
-    <tableColumn id="4" name="Z (D-&gt;V, from skull plane) 0.X mm sigfig" dataDxfId="3"/>
-    <tableColumn id="5" name="Sequence" dataDxfId="2"/>
-    <tableColumn id="6" name="Done?" dataDxfId="1"/>
-    <tableColumn id="7" name="Pinout" dataDxfId="0"/>
+    <tableColumn id="1" name="Location" dataDxfId="8"/>
+    <tableColumn id="2" name="X (A-&gt;P) 0.X mm sigfig" dataDxfId="7"/>
+    <tableColumn id="3" name="Y(M-&gt;L) 0.X mm sigfig" dataDxfId="6"/>
+    <tableColumn id="4" name="Z (D-&gt;V, from skull plane) 0.X mm sigfig" dataDxfId="5"/>
+    <tableColumn id="5" name="Sequence" dataDxfId="4"/>
+    <tableColumn id="6" name="Done?" dataDxfId="3"/>
+    <tableColumn id="7" name="Pinout" dataDxfId="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -966,15 +975,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="75" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.1796875" style="1" customWidth="1"/>
     <col min="4" max="4" width="35.81640625" style="1" bestFit="1" customWidth="1"/>
@@ -988,11 +997,11 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>5</v>
@@ -1001,14 +1010,14 @@
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -1020,10 +1029,10 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -1050,77 +1059,77 @@
     </row>
     <row r="10" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:7" ht="62.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="31" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>24</v>
+      <c r="G19" s="15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="24.5" x14ac:dyDescent="0.45">
@@ -1128,19 +1137,19 @@
         <v>2</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="12">
+        <v>15</v>
+      </c>
+      <c r="E20" s="11">
         <v>0</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>21</v>
+      <c r="F20" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1149,112 +1158,91 @@
         <v>0</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="12">
+        <v>15</v>
+      </c>
+      <c r="E21" s="11">
         <v>0</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>21</v>
+      <c r="F21" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="31" x14ac:dyDescent="0.45">
-      <c r="A22" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>33</v>
+    <row r="22" spans="1:7" ht="24.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="E22" s="9">
         <v>1</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="24.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="7"/>
+      <c r="F22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" ht="46.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="9">
-        <v>2</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="24.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="7"/>
+      <c r="D23" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" ht="46.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="9">
-        <v>3</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="D24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" ht="61" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="9">
-        <v>4</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="24.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="9">
-        <v>5</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.5" x14ac:dyDescent="0.25"/>
+      <c r="D25" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="12.5" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="69" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;F</oddHeader>
   </headerFooter>
@@ -1274,7 +1262,7 @@
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1295400</xdr:colOff>
+                <xdr:colOff>1092200</xdr:colOff>
                 <xdr:row>17</xdr:row>
                 <xdr:rowOff>63500</xdr:rowOff>
               </to>

--- a/_Experiments/_Surgery/_templates/Injection_LC.xlsx
+++ b/_Experiments/_Surgery/_templates/Injection_LC.xlsx
@@ -13,7 +13,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">implant!$A$1:$G$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">implant!$A$1:$G$22</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
@@ -25,7 +25,7 @@
     <author>Kam, Korey</author>
   </authors>
   <commentList>
-    <comment ref="A20" authorId="0">
+    <comment ref="A17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0">
+    <comment ref="A18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,36 +73,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Kam, Korey:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Bregma</t>
   </si>
@@ -208,6 +184,21 @@
     <t>Bregma - 5.45 mm</t>
   </si>
   <si>
+    <t>Brain - 2.00 mm</t>
+  </si>
+  <si>
+    <t>Date of surgery:</t>
+  </si>
+  <si>
+    <t>0.1 mL/30g mouse</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -224,32 +215,23 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>1.20 mm</t>
+      <t>1.20 mm (-R, +L)</t>
     </r>
   </si>
   <si>
-    <t>Brain - 2.00 mm</t>
-  </si>
-  <si>
-    <t>Alt: Skull - 3.00 mm</t>
-  </si>
-  <si>
-    <t>Start:</t>
-  </si>
-  <si>
-    <t>End:</t>
-  </si>
-  <si>
-    <t>Date of surgery:</t>
-  </si>
-  <si>
-    <t>0.1 mL/30g mouse</t>
-  </si>
-  <si>
-    <t>Start vol of current surgery:</t>
-  </si>
-  <si>
-    <t>End vol of current surgery:</t>
+    <t>Start Z:</t>
+  </si>
+  <si>
+    <t>Inject speed</t>
+  </si>
+  <si>
+    <t>End Z - 0.02 (hold 10s)</t>
+  </si>
+  <si>
+    <t>End Z (hold 10m)</t>
+  </si>
+  <si>
+    <t>End Z +0.02 (hold 5m)</t>
   </si>
 </sst>
 </file>
@@ -339,7 +321,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -347,11 +329,146 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -368,24 +485,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -396,6 +495,51 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -403,6 +547,20 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -429,7 +587,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -443,7 +601,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -457,7 +615,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -471,7 +629,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -485,7 +643,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -499,7 +657,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -513,21 +671,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -617,15 +761,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>63500</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>196850</xdr:rowOff>
+          <xdr:colOff>50800</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1092200</xdr:colOff>
-          <xdr:row>17</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
+          <xdr:colOff>1054100</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -667,8 +811,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A19:G25" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A19:G25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A16:G25" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A16:G25"/>
   <sortState ref="A20:F27">
     <sortCondition ref="D6:D14"/>
   </sortState>
@@ -975,17 +1119,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="75" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F12" sqref="F12:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.90625" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.08984375" style="1" bestFit="1" customWidth="1"/>
@@ -997,7 +1141,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5" t="s">
@@ -1059,7 +1203,7 @@
     </row>
     <row r="10" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>24</v>
@@ -1081,168 +1225,174 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" ht="31" x14ac:dyDescent="0.35">
-      <c r="A19" s="15" t="s">
+    <row r="16" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G16" s="9" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="17" spans="1:7" ht="24.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="11">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="24.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="11">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="56.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="13">
+        <v>2</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
     <row r="20" spans="1:7" ht="24.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="11">
-        <v>0</v>
-      </c>
-      <c r="F20" s="10" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="24.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="11">
-        <v>0</v>
-      </c>
-      <c r="F21" s="10" t="s">
+      <c r="A21" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" ht="24.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="9">
-        <v>1</v>
-      </c>
-      <c r="F22" s="10" t="s">
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="31" x14ac:dyDescent="0.45">
+      <c r="A22" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" ht="46.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="13" t="s">
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+      <c r="A23" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+      <c r="A24" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" ht="46.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" ht="61" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12.5" x14ac:dyDescent="0.25"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="32" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="77" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;F</oddHeader>
   </headerFooter>
@@ -1256,15 +1406,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>63500</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>196850</xdr:rowOff>
+                <xdr:colOff>50800</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>31750</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1092200</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>63500</xdr:rowOff>
+                <xdr:colOff>1054100</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>50800</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>

--- a/_Experiments/_Surgery/_templates/Injection_LC.xlsx
+++ b/_Experiments/_Surgery/_templates/Injection_LC.xlsx
@@ -569,7 +569,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="0"/>
+        <color auto="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
@@ -667,7 +667,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color auto="1"/>
+        <color theme="0"/>
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
@@ -811,19 +811,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A16:G25" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A16:G25" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A16:G25"/>
   <sortState ref="A20:F27">
     <sortCondition ref="D6:D14"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Location" dataDxfId="8"/>
-    <tableColumn id="2" name="X (A-&gt;P) 0.X mm sigfig" dataDxfId="7"/>
-    <tableColumn id="3" name="Y(M-&gt;L) 0.X mm sigfig" dataDxfId="6"/>
-    <tableColumn id="4" name="Z (D-&gt;V, from skull plane) 0.X mm sigfig" dataDxfId="5"/>
-    <tableColumn id="5" name="Sequence" dataDxfId="4"/>
-    <tableColumn id="6" name="Done?" dataDxfId="3"/>
-    <tableColumn id="7" name="Pinout" dataDxfId="2"/>
+    <tableColumn id="1" name="Location" dataDxfId="6"/>
+    <tableColumn id="2" name="X (A-&gt;P) 0.X mm sigfig" dataDxfId="5"/>
+    <tableColumn id="3" name="Y(M-&gt;L) 0.X mm sigfig" dataDxfId="4"/>
+    <tableColumn id="4" name="Z (D-&gt;V, from skull plane) 0.X mm sigfig" dataDxfId="3"/>
+    <tableColumn id="5" name="Sequence" dataDxfId="2"/>
+    <tableColumn id="6" name="Done?" dataDxfId="1"/>
+    <tableColumn id="7" name="Pinout" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="75" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F13"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/_Experiments/_Surgery/_templates/Injection_LC.xlsx
+++ b/_Experiments/_Surgery/_templates/Injection_LC.xlsx
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="75" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="G10" sqref="G10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/_Experiments/_Surgery/_templates/Injection_LC.xlsx
+++ b/_Experiments/_Surgery/_templates/Injection_LC.xlsx
@@ -184,9 +184,6 @@
     <t>Bregma - 5.45 mm</t>
   </si>
   <si>
-    <t>Brain - 2.00 mm</t>
-  </si>
-  <si>
     <t>Date of surgery:</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>End Z +0.02 (hold 5m)</t>
+  </si>
+  <si>
+    <t>Brain - 4.00 mm</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="75" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1141,7 +1141,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5" t="s">
@@ -1203,7 +1203,7 @@
     </row>
     <row r="10" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>24</v>
@@ -1302,10 +1302,10 @@
         <v>26</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E19" s="13">
         <v>2</v>
@@ -1318,10 +1318,10 @@
     <row r="20" spans="1:7" ht="24.5" x14ac:dyDescent="0.45">
       <c r="A20" s="15"/>
       <c r="B20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>30</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>31</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="13"/>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="21" spans="1:7" ht="24.5" x14ac:dyDescent="0.45">
       <c r="A21" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="19"/>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="22" spans="1:7" ht="31" x14ac:dyDescent="0.45">
       <c r="A22" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="19"/>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="23" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="21"/>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="24" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A24" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="21"/>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="25" spans="1:7" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="24"/>

--- a/_Experiments/_Surgery/_templates/Injection_LC.xlsx
+++ b/_Experiments/_Surgery/_templates/Injection_LC.xlsx
@@ -13,7 +13,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">implant!$A$1:$G$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">implant!$A$1:$G$26</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
@@ -196,6 +196,24 @@
     <t>L</t>
   </si>
   <si>
+    <t>Start Z:</t>
+  </si>
+  <si>
+    <t>Inject speed</t>
+  </si>
+  <si>
+    <t>End Z - 0.02 (hold 10s)</t>
+  </si>
+  <si>
+    <t>End Z (hold 10m)</t>
+  </si>
+  <si>
+    <t>End Z +0.02 (hold 5m)</t>
+  </si>
+  <si>
+    <t>Brain - 3.50 mm</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -212,26 +230,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>1.20 mm (-R, +L)</t>
+      <t>1.10 mm (-R, +L)</t>
     </r>
-  </si>
-  <si>
-    <t>Start Z:</t>
-  </si>
-  <si>
-    <t>Inject speed</t>
-  </si>
-  <si>
-    <t>End Z - 0.02 (hold 10s)</t>
-  </si>
-  <si>
-    <t>End Z (hold 10m)</t>
-  </si>
-  <si>
-    <t>End Z +0.02 (hold 5m)</t>
-  </si>
-  <si>
-    <t>Brain - 4.00 mm</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="75" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C11" sqref="C11:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1302,10 +1302,10 @@
         <v>26</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="13">
         <v>2</v>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="21" spans="1:7" ht="24.5" x14ac:dyDescent="0.45">
       <c r="A21" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="19"/>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="22" spans="1:7" ht="31" x14ac:dyDescent="0.45">
       <c r="A22" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="19"/>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="23" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="21"/>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="24" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A24" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="21"/>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="25" spans="1:7" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="24"/>

--- a/_Experiments/_Surgery/_templates/Injection_LC.xlsx
+++ b/_Experiments/_Surgery/_templates/Injection_LC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="1990" yWindow="460" windowWidth="11750" windowHeight="10180"/>
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="75" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C13"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/_Experiments/_Surgery/_templates/Injection_LC.xlsx
+++ b/_Experiments/_Surgery/_templates/Injection_LC.xlsx
@@ -181,9 +181,6 @@
     <t>LC injection</t>
   </si>
   <si>
-    <t>Bregma - 5.45 mm</t>
-  </si>
-  <si>
     <t>Date of surgery:</t>
   </si>
   <si>
@@ -212,6 +209,9 @@
   </si>
   <si>
     <t>Brain - 3.50 mm</t>
+  </si>
+  <si>
+    <t>Bregma - 6.45 mm</t>
   </si>
   <si>
     <r>
@@ -230,7 +230,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>1.10 mm (-R, +L)</t>
+      <t>1.00 mm (-R, +L)</t>
     </r>
   </si>
 </sst>
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="75" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E12" sqref="E12:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1141,7 +1141,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5" t="s">
@@ -1203,7 +1203,7 @@
     </row>
     <row r="10" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>24</v>
@@ -1299,13 +1299,13 @@
         <v>25</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" s="13">
         <v>2</v>
@@ -1318,10 +1318,10 @@
     <row r="20" spans="1:7" ht="24.5" x14ac:dyDescent="0.45">
       <c r="A20" s="15"/>
       <c r="B20" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>29</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>30</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="13"/>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="21" spans="1:7" ht="24.5" x14ac:dyDescent="0.45">
       <c r="A21" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="19"/>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="22" spans="1:7" ht="31" x14ac:dyDescent="0.45">
       <c r="A22" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="19"/>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="23" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="21"/>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="24" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A24" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="21"/>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="25" spans="1:7" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="24"/>

--- a/_Experiments/_Surgery/_templates/Injection_LC.xlsx
+++ b/_Experiments/_Surgery/_templates/Injection_LC.xlsx
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="75" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E13"/>
+      <selection activeCell="G8" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/_Experiments/_Surgery/_templates/Injection_LC.xlsx
+++ b/_Experiments/_Surgery/_templates/Injection_LC.xlsx
@@ -211,7 +211,7 @@
     <t>Brain - 3.50 mm</t>
   </si>
   <si>
-    <t>Bregma - 6.45 mm</t>
+    <t>Bregma - 5.5 mm</t>
   </si>
   <si>
     <r>
@@ -221,7 +221,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>±</t>
+      <t>±0.85</t>
     </r>
     <r>
       <rPr>
@@ -230,7 +230,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>1.00 mm (-R, +L)</t>
+      <t xml:space="preserve"> mm (-R, +L)</t>
     </r>
   </si>
 </sst>
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="75" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G9"/>
+      <selection activeCell="E11" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/_Experiments/_Surgery/_templates/Injection_LC.xlsx
+++ b/_Experiments/_Surgery/_templates/Injection_LC.xlsx
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="75" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/_Experiments/_Surgery/_templates/Injection_LC.xlsx
+++ b/_Experiments/_Surgery/_templates/Injection_LC.xlsx
@@ -208,9 +208,6 @@
     <t>End Z +0.02 (hold 5m)</t>
   </si>
   <si>
-    <t>Brain - 3.50 mm</t>
-  </si>
-  <si>
     <t>Bregma - 5.5 mm</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
       </rPr>
       <t xml:space="preserve"> mm (-R, +L)</t>
     </r>
+  </si>
+  <si>
+    <t>Brain - 3.60 mm</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="75" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1299,13 +1299,13 @@
         <v>25</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="E19" s="13">
         <v>2</v>

--- a/_Experiments/_Surgery/_templates/Injection_LC.xlsx
+++ b/_Experiments/_Surgery/_templates/Injection_LC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1990" yWindow="460" windowWidth="11750" windowHeight="10180"/>
+    <workbookView xWindow="1992" yWindow="456" windowWidth="11748" windowHeight="10176"/>
   </bookViews>
   <sheets>
     <sheet name="implant" sheetId="2" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Bregma</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>Brain - 3.60 mm</t>
+  </si>
+  <si>
+    <t>Virus name:</t>
+  </si>
+  <si>
+    <t>vol/injetion (uL):</t>
   </si>
 </sst>
 </file>
@@ -761,15 +767,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>50800</xdr:colOff>
+          <xdr:colOff>53340</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1054100</xdr:colOff>
+          <xdr:colOff>1051560</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>53340</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1122,24 +1128,24 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="75" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.90625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -1152,7 +1158,7 @@
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -1165,7 +1171,17 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1179,7 +1195,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="1">
         <v>30</v>
       </c>
@@ -1193,7 +1209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1201,7 +1217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="12.45" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1209,19 +1225,19 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" ht="62.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="12.45" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" ht="12.45" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" ht="62.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="12.45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="15.45" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1229,7 +1245,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="31.05" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>1</v>
       </c>
@@ -1252,7 +1268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="24.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
@@ -1273,7 +1289,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="24.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>0</v>
       </c>
@@ -1294,7 +1310,7 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="56.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:7" ht="56.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
@@ -1315,7 +1331,7 @@
       </c>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="24.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A20" s="15"/>
       <c r="B20" s="16" t="s">
         <v>28</v>
@@ -1330,7 +1346,7 @@
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="24.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A21" s="18" t="s">
         <v>30</v>
       </c>
@@ -1343,7 +1359,7 @@
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="31" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A22" s="18" t="s">
         <v>32</v>
       </c>
@@ -1356,7 +1372,7 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="31.05" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
         <v>33</v>
       </c>
@@ -1367,7 +1383,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="31.05" x14ac:dyDescent="0.35">
       <c r="A24" s="20" t="s">
         <v>34</v>
       </c>
@@ -1378,7 +1394,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="22" t="s">
         <v>31</v>
       </c>
@@ -1389,7 +1405,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:7" ht="12.45" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="77" orientation="landscape" r:id="rId1"/>
@@ -1401,27 +1417,27 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PowerPoint.Show.12" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8203">
+        <oleObject link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8203">
           <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>50800</xdr:colOff>
+                <xdr:colOff>53340</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>31750</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1054100</xdr:colOff>
+                <xdr:colOff>1051560</xdr:colOff>
                 <xdr:row>14</xdr:row>
-                <xdr:rowOff>50800</xdr:rowOff>
+                <xdr:rowOff>53340</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PowerPoint.Show.12" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8203"/>
+        <oleObject link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="8203"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
